--- a/Base de Dados Final.xlsx
+++ b/Base de Dados Final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4042731415db51ae/Área de Trabalho/CIENCIA DADOS SCS/PROJETO LIMPA BRASIL/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\47377942878\Desktop\Limpa Brasil\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="661" documentId="11_D234F386136516B54F6D0348752618F0291AE5C2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2CC9FD1B-A53E-4E5D-BAA8-47DCC0BC500F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F8CA55-7B17-482D-883D-1850819DC7ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="841" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" tabRatio="841" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BD_LimpaBrasil" sheetId="7" r:id="rId1"/>
@@ -20,27 +20,14 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filtro 1" guid="{1473B1D9-BD91-46EB-82D8-1AA96C3D305A}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filtro 2" guid="{B1392F1A-47E1-42A6-8EE1-089463AB54EF}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filtro 1" guid="{1473B1D9-BD91-46EB-82D8-1AA96C3D305A}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1335" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="196">
   <si>
     <t>Campanha</t>
   </si>
@@ -276,25 +263,16 @@
     <t>Educação</t>
   </si>
   <si>
-    <t>29/04/2025</t>
-  </si>
-  <si>
     <t>Mutirão de limpeza Richermont Praça Dr Francisco Patti</t>
   </si>
   <si>
     <t>BD_Raspagem</t>
   </si>
   <si>
-    <t>26/04/2025</t>
-  </si>
-  <si>
     <t>Praia Grande</t>
   </si>
   <si>
     <t>66° Mutirão de Limpeza Canto do Forte</t>
-  </si>
-  <si>
-    <t>24/04/2025</t>
   </si>
   <si>
     <t>MUTIRÃO DE LIMPEZA
@@ -302,45 +280,27 @@
 SÃO PAULO - SP</t>
   </si>
   <si>
-    <t>21/04/2025</t>
-  </si>
-  <si>
     <t>São Vicente</t>
   </si>
   <si>
     <t>AÇÃO SURF RAÍZES DE LIMPEZA DE PRAIA - Surf Ambiental 2ª Etapa</t>
   </si>
   <si>
-    <t>09/04/2025</t>
-  </si>
-  <si>
     <t>MUTIRÃO DE LIMPEZA - GOODPACK 2025</t>
   </si>
   <si>
-    <t>28/03/2025</t>
-  </si>
-  <si>
     <t>Mutirão de Limpeza Formiguinhas da Praia com a TV Tribuna Santos</t>
   </si>
   <si>
     <t>Mutirão de limpeza Formiguinhas da Praia na TV Tribuna Santos</t>
   </si>
   <si>
-    <t>23/03/2025</t>
-  </si>
-  <si>
     <t>65° Mutirão de Limpeza da Aviação</t>
   </si>
   <si>
-    <t>22/03/2025</t>
-  </si>
-  <si>
     <t>AÇÃO DE LIMPEZA DE PRAIA - DIA MUNDIAL DA ÁGUA</t>
   </si>
   <si>
-    <t>15/03/2025</t>
-  </si>
-  <si>
     <t>Mutirão de limpeza Verão no Clima com FORMIGUINHAS DA PRAIA</t>
   </si>
   <si>
@@ -350,136 +310,73 @@
     <t>VIRADA SUSTENTÁVEL SÃO VICENTE - LIMPEZA DE PRAIA</t>
   </si>
   <si>
-    <t>09/03/2025</t>
-  </si>
-  <si>
     <t>AÇÃO SURF RAÍZES DE LIMPEZA DE PRAIA - Trilha do Surfista</t>
   </si>
   <si>
-    <t>06/03/2025</t>
-  </si>
-  <si>
     <t>Mutirão de Limpeza do CCA Gotas de Flor</t>
   </si>
   <si>
-    <t>27/02/2025</t>
-  </si>
-  <si>
     <t>Recepção que Transforma: Mutirão de Limpeza EACH-USP &amp; Comunidade Keralux - SP</t>
   </si>
   <si>
-    <t>23/02/2025</t>
-  </si>
-  <si>
     <t>Franca</t>
   </si>
   <si>
     <t>Mutirão de Limpeza no City Petrópolis</t>
   </si>
   <si>
-    <t>22/02/2025</t>
-  </si>
-  <si>
     <t>64° Mutirão de Limpeza do Real</t>
   </si>
   <si>
     <t>Mutirão de limpeza de praia = JARDIM REAL</t>
   </si>
   <si>
-    <t>01/02/2025</t>
-  </si>
-  <si>
     <t>Limpeza na represa Guarapiranga - Jd São Francisco</t>
   </si>
   <si>
-    <t>26/01/2025</t>
-  </si>
-  <si>
     <t>AÇÃO DE LIMPEZA DE PRAIA - Praia de Itaquitanduva PEXJ/SV</t>
   </si>
   <si>
-    <t>25/01/2025</t>
-  </si>
-  <si>
     <t>63°Mutirão de Limpeza da Vila Mirim</t>
-  </si>
-  <si>
-    <t>18/01/2025</t>
   </si>
   <si>
     <t>MUTIRÃO DE LIMPEZA LIBERDADE
 SP</t>
   </si>
   <si>
-    <t>22/12/2024</t>
-  </si>
-  <si>
     <t>AÇÃO SURF RAÍZES DE LIMPEZA DE PRAIA</t>
   </si>
   <si>
-    <t>02/12/2024</t>
-  </si>
-  <si>
     <t>Limpeza na represa Guarapiranga - Jd São Francisco.</t>
   </si>
   <si>
-    <t>23/11/2024</t>
-  </si>
-  <si>
     <t>MUTIRÃO DE LIMPEZA - VILA MARIANA - PROJETO #EUCUIDODOMEUQUADRADO</t>
   </si>
   <si>
-    <t>22/11/2024</t>
-  </si>
-  <si>
     <t>Conscientização Ambiental e Mutirão de Limpeza Clube Tarzam</t>
   </si>
   <si>
-    <t>15/11/2024</t>
-  </si>
-  <si>
     <t>Surf Ambiental - Limpeza de Praia</t>
   </si>
   <si>
-    <t>31/10/2024</t>
-  </si>
-  <si>
     <t>Mutirão de Limpeza na EACH -USP</t>
   </si>
   <si>
-    <t>19/10/2024</t>
-  </si>
-  <si>
-    <t>07/10/2024</t>
-  </si>
-  <si>
     <t>DIA MUNDIAL DA LIMPEZA JUNDIAI-SP</t>
   </si>
   <si>
-    <t>02/10/2024</t>
-  </si>
-  <si>
     <t>Osasco</t>
   </si>
   <si>
     <t>Mutirão de coleta de resíduos recicláveis</t>
   </si>
   <si>
-    <t>01/10/2024</t>
-  </si>
-  <si>
     <t>Multirão de Limpeza da Shiseido</t>
   </si>
   <si>
-    <t>30/09/2024</t>
-  </si>
-  <si>
     <t>MUTIRÃO DE LIMPEZA - NEOENERGIA 2024</t>
   </si>
   <si>
-    <t>28/09/2024</t>
-  </si>
-  <si>
     <t>MUTIRÃO DE LIMPEZA - PROJETO #EUCUIDODOMEUQUADRADO cópia</t>
   </si>
   <si>
@@ -489,15 +386,9 @@
     <t>Dia Mundial da Limpeza / MAPFRE - São Vicente /SP</t>
   </si>
   <si>
-    <t>27/09/2024</t>
-  </si>
-  <si>
     <t>Limpeza Digital do Nucleo Cairo</t>
   </si>
   <si>
-    <t>22/09/2024</t>
-  </si>
-  <si>
     <t>Mutirão de LImpeza de Praia no Gaivota Itanhaém</t>
   </si>
   <si>
@@ -519,9 +410,6 @@
     <t>DIA MUNDIAL DA LIMPEZA</t>
   </si>
   <si>
-    <t>21/09/2024</t>
-  </si>
-  <si>
     <t>LIMPEZA DA RUA LUIZ ANTONIO DOS SANTOS-SANTA TEREZINHA-ZN-SP</t>
   </si>
   <si>
@@ -576,9 +464,6 @@
     <t>DIA MUNDIAL DA LIMPEZA ITANHAÉM</t>
   </si>
   <si>
-    <t>20/09/2024</t>
-  </si>
-  <si>
     <t>Dia Mundial da Limpeza - Colégio Presidente Kennedy</t>
   </si>
   <si>
@@ -618,9 +503,6 @@
     <t>Dia Mundial da Limpeza nas praias do Boneteiro, do Centro e Porto Grande, em São Sebastião (SP)</t>
   </si>
   <si>
-    <t>19/09/2024</t>
-  </si>
-  <si>
     <t>Dia Mundial de Limpeza - Programa Meu Futuro Minha Voz no CCA Karelux</t>
   </si>
   <si>
@@ -630,18 +512,12 @@
     <t>Multirão de Limpeza da Nespresso</t>
   </si>
   <si>
-    <t>15/09/2024</t>
-  </si>
-  <si>
     <t>Itatiba</t>
   </si>
   <si>
     <t>Limpeza das ruas e plantio de mudas nativas - Itatiba/SP</t>
   </si>
   <si>
-    <t>14/09/2024</t>
-  </si>
-  <si>
     <t>São Carlos</t>
   </si>
   <si>
@@ -666,15 +542,9 @@
     <t>MUTIRÃO DE LIMPEZA CEVA LOGISTICS CAMPINAS - SP</t>
   </si>
   <si>
-    <t>13/09/2024</t>
-  </si>
-  <si>
     <t>Mutirão de limpeza com adolescentes Gotas de Flor</t>
   </si>
   <si>
-    <t>04/09/2024</t>
-  </si>
-  <si>
     <t>Mongaguá</t>
   </si>
   <si>
@@ -684,57 +554,33 @@
     <t>MUTIRÃO DE LIMPEZA MONGAGUA - Bairro: Centro</t>
   </si>
   <si>
-    <t>01/09/2024</t>
-  </si>
-  <si>
     <t>Socorro</t>
   </si>
   <si>
     <t>projeto H2o Limpeza da Ecobarreira do Rio do Peixe</t>
   </si>
   <si>
-    <t>22/08/2024</t>
-  </si>
-  <si>
     <t>São José dos Campos</t>
   </si>
   <si>
     <t>Mutirão de Limpeza na Nascente do Rio Alambari</t>
   </si>
   <si>
-    <t>17/08/2024</t>
-  </si>
-  <si>
     <t>MUTIRÃO DE LIMPEZA VILA MARIANA/SP (PROJETO #EUCUIDODOMEUQUADRADO)</t>
   </si>
   <si>
-    <t>13/07/2024</t>
-  </si>
-  <si>
     <t>INSTALAÇÃO DE BITUQUEIRAS E MUTIRÃO DE LIMPEZA - PROJETO #EUCUIDODOMEUQUADRADO</t>
   </si>
   <si>
-    <t>29/06/2024</t>
-  </si>
-  <si>
     <t>AÇÃO DE LIMPEZA KPMG - RIBEIRÃO PRETO SP</t>
   </si>
   <si>
-    <t>08/06/2024</t>
-  </si>
-  <si>
     <t>MUTIRÃO DE LIMPEZA E ECO-CHALLENGE KPMG SP</t>
   </si>
   <si>
-    <t>25/05/2024</t>
-  </si>
-  <si>
     <t>EDP - Multirão de Limpeza Caraguatatuba</t>
   </si>
   <si>
-    <t>27/04/2024</t>
-  </si>
-  <si>
     <t>Mutirão de Limpeza - Praia Canto do Forte - Praia Grande/SP</t>
   </si>
   <si>
@@ -747,27 +593,15 @@
     <t>Mutirão de Limpeza no Mangue - São Vicente/SP</t>
   </si>
   <si>
-    <t>24/04/2024</t>
-  </si>
-  <si>
     <t>Multirão de Limpeza Faria Lima</t>
   </si>
   <si>
-    <t>22/04/2024</t>
-  </si>
-  <si>
     <t>Mutirão de Plantio - Socorro/SP</t>
   </si>
   <si>
-    <t>21/04/2024</t>
-  </si>
-  <si>
     <t>Mutirão de Limpeza - Franca/SP</t>
   </si>
   <si>
-    <t>20/04/2024</t>
-  </si>
-  <si>
     <t>Itapecerica da Serra</t>
   </si>
   <si>
@@ -777,13 +611,7 @@
     <t>Mutirão de Limpeza - Guarulhos/SP</t>
   </si>
   <si>
-    <t>17/04/2024</t>
-  </si>
-  <si>
     <t>MUTIRÃO DE LIMPEZA CARTIER E LIMPA BRASIL</t>
-  </si>
-  <si>
-    <t>14/04/2024</t>
   </si>
   <si>
     <t>Mutirão de Limpeza - Dia da Terra - Av. Paulista - SP</t>
@@ -797,7 +625,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -858,7 +686,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -881,10 +709,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1106,24 +942,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7B87FE9-5175-4B9A-B65C-90F44C2D8F43}">
   <dimension ref="A1:F268"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="115.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="115.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1142,8 +978,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="8">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
         <v>44265</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1162,8 +998,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="8">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
         <v>44277</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1182,8 +1018,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="8">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
         <v>44263</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -1202,8 +1038,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="8">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
         <v>44263</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -1222,8 +1058,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="8">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
         <v>44264</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -1242,8 +1078,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="8">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
         <v>44277</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1262,8 +1098,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="8">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
         <v>44277</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -1282,8 +1118,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="8">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
         <v>44278</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1302,8 +1138,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="8">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
         <v>44277</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -1322,8 +1158,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="8">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
         <v>44277</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -1342,8 +1178,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="8">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
         <v>44277</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -1362,8 +1198,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="8">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
         <v>44277</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -1382,8 +1218,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="8">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
         <v>44277</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -1402,8 +1238,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="8">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
         <v>44278</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -1422,8 +1258,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="8">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
         <v>44277</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -1442,8 +1278,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="8">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
         <v>44277</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -1462,8 +1298,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="8">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
         <v>44277</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -1482,8 +1318,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="8">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
         <v>44277</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -1502,8 +1338,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="8">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
         <v>44277</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -1522,8 +1358,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="8">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
         <v>44277</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -1542,8 +1378,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="8">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
         <v>44277</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -1562,8 +1398,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="8">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
         <v>44277</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -1582,8 +1418,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="8">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
         <v>44265</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -1602,8 +1438,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="8">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
         <v>44265</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -1622,8 +1458,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="8">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
         <v>44282</v>
       </c>
       <c r="B26" s="4" t="s">
@@ -1642,8 +1478,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="8">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
         <v>44283</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -1662,8 +1498,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="8">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
         <v>44277</v>
       </c>
       <c r="B28" s="4" t="s">
@@ -1682,8 +1518,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="8">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
         <v>44277</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -1702,8 +1538,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="8">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="9">
         <v>44300</v>
       </c>
       <c r="B30" s="4" t="s">
@@ -1722,8 +1558,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="8">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
         <v>44308</v>
       </c>
       <c r="B31" s="4" t="s">
@@ -1742,8 +1578,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="8">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="9">
         <v>44349</v>
       </c>
       <c r="B32" s="4" t="s">
@@ -1762,8 +1598,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="8">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="9">
         <v>44352</v>
       </c>
       <c r="B33" s="4" t="s">
@@ -1782,8 +1618,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="8">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="9">
         <v>44352</v>
       </c>
       <c r="B34" s="4" t="s">
@@ -1802,8 +1638,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="8">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="9">
         <v>44355</v>
       </c>
       <c r="B35" s="4" t="s">
@@ -1822,8 +1658,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="8">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="9">
         <v>44322</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -1842,8 +1678,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="8">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="9">
         <v>44357</v>
       </c>
       <c r="B37" s="4" t="s">
@@ -1862,8 +1698,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="8">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="9">
         <v>44643</v>
       </c>
       <c r="B38" s="4" t="s">
@@ -1882,8 +1718,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="8">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="9">
         <v>44643</v>
       </c>
       <c r="B39" s="4" t="s">
@@ -1902,8 +1738,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="8">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="9">
         <v>44643</v>
       </c>
       <c r="B40" s="4" t="s">
@@ -1922,8 +1758,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="8">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="9">
         <v>44669</v>
       </c>
       <c r="B41" s="4" t="s">
@@ -1942,8 +1778,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="8">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="9">
         <v>44639</v>
       </c>
       <c r="B42" s="4" t="s">
@@ -1962,8 +1798,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="8">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="9">
         <v>44665</v>
       </c>
       <c r="B43" s="4" t="s">
@@ -1982,8 +1818,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="8">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="9">
         <v>44673</v>
       </c>
       <c r="B44" s="4" t="s">
@@ -2002,8 +1838,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="8">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="9">
         <v>44671</v>
       </c>
       <c r="B45" s="4" t="s">
@@ -2022,8 +1858,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="8">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="9">
         <v>44717</v>
       </c>
       <c r="B46" s="4" t="s">
@@ -2042,8 +1878,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="8">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="9">
         <v>44716</v>
       </c>
       <c r="B47" s="4" t="s">
@@ -2062,8 +1898,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="8">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="9">
         <v>44710</v>
       </c>
       <c r="B48" s="4" t="s">
@@ -2082,8 +1918,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="8">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="9">
         <v>44730</v>
       </c>
       <c r="B49" s="4" t="s">
@@ -2102,8 +1938,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="8">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="9">
         <v>44765</v>
       </c>
       <c r="B50" s="4" t="s">
@@ -2122,8 +1958,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="8">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="9">
         <v>44765</v>
       </c>
       <c r="B51" s="4" t="s">
@@ -2142,8 +1978,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="8">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="9">
         <v>44885</v>
       </c>
       <c r="B52" s="4" t="s">
@@ -2162,8 +1998,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="8">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="9">
         <v>44887</v>
       </c>
       <c r="B53" s="4" t="s">
@@ -2182,8 +2018,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="8">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="9">
         <v>44889</v>
       </c>
       <c r="B54" s="4" t="s">
@@ -2202,8 +2038,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="8">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="9">
         <v>44892</v>
       </c>
       <c r="B55" s="4" t="s">
@@ -2222,8 +2058,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="8">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="9">
         <v>44981</v>
       </c>
       <c r="B56" s="4" t="s">
@@ -2242,8 +2078,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="8">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="9">
         <v>45081</v>
       </c>
       <c r="B57" s="4" t="s">
@@ -2262,8 +2098,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="8">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="9">
         <v>45144</v>
       </c>
       <c r="B58" s="4" t="s">
@@ -2282,8 +2118,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="8">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="9">
         <v>45100</v>
       </c>
       <c r="B59" s="6" t="s">
@@ -2302,8 +2138,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="8">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="9">
         <v>45185</v>
       </c>
       <c r="B60" s="6" t="s">
@@ -2322,8 +2158,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="8">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="9">
         <v>45343</v>
       </c>
       <c r="B61" s="6" t="s">
@@ -2342,8 +2178,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="8">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="9">
         <v>45392</v>
       </c>
       <c r="B62" s="6" t="s">
@@ -2362,8 +2198,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="8">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="9">
         <v>45395</v>
       </c>
       <c r="B63" s="6" t="s">
@@ -2382,8 +2218,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="8">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="9">
         <v>45451</v>
       </c>
       <c r="B64" s="6" t="s">
@@ -2402,842 +2238,842 @@
         <v>72</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="9" t="s">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="10">
+        <v>45776</v>
+      </c>
+      <c r="B65" t="s">
+        <v>17</v>
+      </c>
+      <c r="D65" t="s">
         <v>78</v>
       </c>
-      <c r="B65" t="s">
-        <v>17</v>
-      </c>
-      <c r="D65" t="s">
-        <v>79</v>
-      </c>
       <c r="E65" s="7" t="s">
         <v>76</v>
       </c>
       <c r="F65" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="10">
+        <v>45773</v>
+      </c>
+      <c r="B66" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="9" t="s">
+      <c r="D66" t="s">
         <v>81</v>
       </c>
-      <c r="B66" t="s">
+      <c r="E66" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F66" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="10">
+        <v>45771</v>
+      </c>
+      <c r="B67" t="s">
+        <v>17</v>
+      </c>
+      <c r="D67" t="s">
         <v>82</v>
       </c>
-      <c r="D66" t="s">
+      <c r="E67" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F67" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="10">
+        <v>45768</v>
+      </c>
+      <c r="B68" t="s">
         <v>83</v>
       </c>
-      <c r="E66" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F66" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="9" t="s">
+      <c r="D68" t="s">
         <v>84</v>
       </c>
-      <c r="B67" t="s">
-        <v>17</v>
-      </c>
-      <c r="D67" t="s">
-        <v>85</v>
-      </c>
-      <c r="E67" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F67" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="B68" t="s">
-        <v>87</v>
-      </c>
-      <c r="D68" t="s">
-        <v>88</v>
-      </c>
       <c r="E68" s="7" t="s">
         <v>76</v>
       </c>
       <c r="F68" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="9" t="s">
-        <v>89</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="10">
+        <v>45756</v>
       </c>
       <c r="B69" t="s">
         <v>70</v>
       </c>
       <c r="D69" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E69" s="7" t="s">
         <v>76</v>
       </c>
       <c r="F69" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="10">
+        <v>45744</v>
+      </c>
+      <c r="B70" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B70" t="s">
-        <v>82</v>
-      </c>
       <c r="D70" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E70" s="7" t="s">
         <v>76</v>
       </c>
       <c r="F70" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="10">
+        <v>45744</v>
+      </c>
+      <c r="B71" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B71" t="s">
-        <v>82</v>
-      </c>
       <c r="D71" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E71" s="7" t="s">
         <v>76</v>
       </c>
       <c r="F71" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="10">
+        <v>45739</v>
+      </c>
+      <c r="B72" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B72" t="s">
-        <v>82</v>
-      </c>
       <c r="D72" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E72" s="7" t="s">
         <v>76</v>
       </c>
       <c r="F72" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="9" t="s">
-        <v>96</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="10">
+        <v>45738</v>
       </c>
       <c r="B73" t="s">
         <v>65</v>
       </c>
       <c r="D73" t="s">
+        <v>89</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F73" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="10">
+        <v>45731</v>
+      </c>
+      <c r="B74" t="s">
+        <v>80</v>
+      </c>
+      <c r="D74" t="s">
+        <v>90</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F74" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="10">
+        <v>45731</v>
+      </c>
+      <c r="B75" t="s">
+        <v>80</v>
+      </c>
+      <c r="D75" t="s">
+        <v>91</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F75" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="10">
+        <v>45731</v>
+      </c>
+      <c r="B76" t="s">
+        <v>83</v>
+      </c>
+      <c r="D76" t="s">
+        <v>92</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F76" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="10">
+        <v>45725</v>
+      </c>
+      <c r="B77" t="s">
+        <v>83</v>
+      </c>
+      <c r="D77" t="s">
+        <v>93</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F77" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="10">
+        <v>45722</v>
+      </c>
+      <c r="B78" t="s">
+        <v>17</v>
+      </c>
+      <c r="D78" t="s">
+        <v>94</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F78" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="10">
+        <v>45715</v>
+      </c>
+      <c r="B79" t="s">
+        <v>17</v>
+      </c>
+      <c r="D79" t="s">
+        <v>95</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F79" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="10">
+        <v>45711</v>
+      </c>
+      <c r="B80" t="s">
+        <v>96</v>
+      </c>
+      <c r="D80" t="s">
         <v>97</v>
       </c>
-      <c r="E73" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F73" t="s">
+      <c r="E80" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F80" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="10">
+        <v>45710</v>
+      </c>
+      <c r="B81" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="9" t="s">
+      <c r="D81" t="s">
         <v>98</v>
       </c>
-      <c r="B74" t="s">
-        <v>82</v>
-      </c>
-      <c r="D74" t="s">
+      <c r="E81" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F81" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="10">
+        <v>45710</v>
+      </c>
+      <c r="B82" t="s">
+        <v>80</v>
+      </c>
+      <c r="D82" t="s">
         <v>99</v>
       </c>
-      <c r="E74" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F74" t="s">
+      <c r="E82" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F82" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="10">
+        <v>45689</v>
+      </c>
+      <c r="B83" t="s">
+        <v>17</v>
+      </c>
+      <c r="D83" t="s">
+        <v>100</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F83" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="10">
+        <v>45683</v>
+      </c>
+      <c r="B84" t="s">
+        <v>83</v>
+      </c>
+      <c r="D84" t="s">
+        <v>101</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F84" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="10">
+        <v>45682</v>
+      </c>
+      <c r="B85" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B75" t="s">
-        <v>82</v>
-      </c>
-      <c r="D75" t="s">
-        <v>100</v>
-      </c>
-      <c r="E75" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F75" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B76" t="s">
-        <v>87</v>
-      </c>
-      <c r="D76" t="s">
-        <v>101</v>
-      </c>
-      <c r="E76" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F76" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" s="9" t="s">
+      <c r="D85" t="s">
         <v>102</v>
       </c>
-      <c r="B77" t="s">
-        <v>87</v>
-      </c>
-      <c r="D77" t="s">
+      <c r="E85" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F85" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="10">
+        <v>45675</v>
+      </c>
+      <c r="B86" t="s">
+        <v>17</v>
+      </c>
+      <c r="D86" t="s">
         <v>103</v>
       </c>
-      <c r="E77" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F77" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" s="9" t="s">
+      <c r="E86" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F86" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="10">
+        <v>45648</v>
+      </c>
+      <c r="B87" t="s">
+        <v>83</v>
+      </c>
+      <c r="D87" t="s">
         <v>104</v>
       </c>
-      <c r="B78" t="s">
-        <v>17</v>
-      </c>
-      <c r="D78" t="s">
+      <c r="E87" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F87" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="10">
+        <v>45628</v>
+      </c>
+      <c r="B88" t="s">
+        <v>17</v>
+      </c>
+      <c r="D88" t="s">
         <v>105</v>
       </c>
-      <c r="E78" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F78" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" s="9" t="s">
+      <c r="E88" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F88" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="10">
+        <v>45619</v>
+      </c>
+      <c r="B89" t="s">
+        <v>17</v>
+      </c>
+      <c r="D89" t="s">
         <v>106</v>
       </c>
-      <c r="B79" t="s">
-        <v>17</v>
-      </c>
-      <c r="D79" t="s">
+      <c r="E89" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F89" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="10">
+        <v>45618</v>
+      </c>
+      <c r="B90" t="s">
+        <v>17</v>
+      </c>
+      <c r="D90" t="s">
         <v>107</v>
       </c>
-      <c r="E79" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F79" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="B80" t="s">
-        <v>109</v>
-      </c>
-      <c r="D80" t="s">
-        <v>110</v>
-      </c>
-      <c r="E80" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F80" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="B81" t="s">
-        <v>82</v>
-      </c>
-      <c r="D81" t="s">
-        <v>112</v>
-      </c>
-      <c r="E81" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F81" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="B82" t="s">
-        <v>82</v>
-      </c>
-      <c r="D82" t="s">
-        <v>113</v>
-      </c>
-      <c r="E82" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F82" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="B83" t="s">
-        <v>17</v>
-      </c>
-      <c r="D83" t="s">
-        <v>115</v>
-      </c>
-      <c r="E83" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F83" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="B84" t="s">
-        <v>87</v>
-      </c>
-      <c r="D84" t="s">
-        <v>117</v>
-      </c>
-      <c r="E84" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F84" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="B85" t="s">
-        <v>82</v>
-      </c>
-      <c r="D85" t="s">
-        <v>119</v>
-      </c>
-      <c r="E85" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F85" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="B86" t="s">
-        <v>17</v>
-      </c>
-      <c r="D86" t="s">
-        <v>121</v>
-      </c>
-      <c r="E86" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F86" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="B87" t="s">
-        <v>87</v>
-      </c>
-      <c r="D87" t="s">
-        <v>123</v>
-      </c>
-      <c r="E87" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F87" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="B88" t="s">
-        <v>17</v>
-      </c>
-      <c r="D88" t="s">
-        <v>125</v>
-      </c>
-      <c r="E88" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F88" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="B89" t="s">
-        <v>17</v>
-      </c>
-      <c r="D89" t="s">
-        <v>127</v>
-      </c>
-      <c r="E89" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F89" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="B90" t="s">
-        <v>17</v>
-      </c>
-      <c r="D90" t="s">
-        <v>129</v>
-      </c>
       <c r="E90" s="7" t="s">
         <v>76</v>
       </c>
       <c r="F90" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91" s="9" t="s">
-        <v>130</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="10">
+        <v>45611</v>
       </c>
       <c r="B91" t="s">
         <v>65</v>
       </c>
       <c r="D91" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="E91" s="7" t="s">
         <v>76</v>
       </c>
       <c r="F91" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A92" s="9" t="s">
-        <v>132</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="10">
+        <v>45596</v>
       </c>
       <c r="B92" t="s">
         <v>17</v>
       </c>
       <c r="D92" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="E92" s="7" t="s">
         <v>76</v>
       </c>
       <c r="F92" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93" s="9" t="s">
-        <v>134</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="10">
+        <v>45584</v>
       </c>
       <c r="B93" t="s">
         <v>17</v>
       </c>
       <c r="D93" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="E93" s="7" t="s">
         <v>76</v>
       </c>
       <c r="F93" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" s="9" t="s">
-        <v>134</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="10">
+        <v>45584</v>
       </c>
       <c r="B94" t="s">
         <v>17</v>
       </c>
       <c r="D94" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="E94" s="7" t="s">
         <v>76</v>
       </c>
       <c r="F94" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95" s="9" t="s">
-        <v>135</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="10">
+        <v>45572</v>
       </c>
       <c r="B95" t="s">
         <v>69</v>
       </c>
       <c r="D95" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="E95" s="7" t="s">
         <v>76</v>
       </c>
       <c r="F95" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96" s="9" t="s">
-        <v>137</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="10">
+        <v>45567</v>
       </c>
       <c r="B96" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="D96" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="E96" s="7" t="s">
         <v>76</v>
       </c>
       <c r="F96" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="9" t="s">
-        <v>140</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="10">
+        <v>45566</v>
       </c>
       <c r="B97" t="s">
         <v>17</v>
       </c>
       <c r="D97" t="s">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="E97" s="7" t="s">
         <v>76</v>
       </c>
       <c r="F97" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="9" t="s">
-        <v>142</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="10">
+        <v>45565</v>
       </c>
       <c r="B98" t="s">
         <v>70</v>
       </c>
       <c r="D98" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="E98" s="7" t="s">
         <v>76</v>
       </c>
       <c r="F98" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" s="9" t="s">
-        <v>144</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="10">
+        <v>45563</v>
       </c>
       <c r="B99" t="s">
         <v>17</v>
       </c>
       <c r="D99" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="E99" s="7" t="s">
         <v>76</v>
       </c>
       <c r="F99" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="9" t="s">
-        <v>144</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="10">
+        <v>45563</v>
       </c>
       <c r="B100" t="s">
         <v>17</v>
       </c>
       <c r="D100" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="E100" s="7" t="s">
         <v>76</v>
       </c>
       <c r="F100" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" s="9" t="s">
-        <v>144</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="10">
+        <v>45563</v>
       </c>
       <c r="B101" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D101" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="E101" s="7" t="s">
         <v>76</v>
       </c>
       <c r="F101" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" s="9" t="s">
-        <v>148</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="10">
+        <v>45562</v>
       </c>
       <c r="B102" t="s">
         <v>17</v>
       </c>
       <c r="D102" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
       <c r="E102" s="7" t="s">
         <v>76</v>
       </c>
       <c r="F102" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A103" s="9" t="s">
-        <v>150</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="10">
+        <v>45557</v>
       </c>
       <c r="B103" t="s">
         <v>55</v>
       </c>
       <c r="D103" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="E103" s="7" t="s">
         <v>76</v>
       </c>
       <c r="F103" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104" s="9" t="s">
-        <v>150</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="10">
+        <v>45557</v>
       </c>
       <c r="B104" t="s">
         <v>55</v>
       </c>
       <c r="D104" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="E104" s="7" t="s">
         <v>76</v>
       </c>
       <c r="F104" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A105" s="9" t="s">
-        <v>150</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="10">
+        <v>45557</v>
       </c>
       <c r="B105" t="s">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="D105" t="s">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="E105" s="7" t="s">
         <v>76</v>
       </c>
       <c r="F105" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106" s="9" t="s">
-        <v>150</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="10">
+        <v>45557</v>
       </c>
       <c r="B106" t="s">
         <v>71</v>
       </c>
       <c r="D106" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="E106" s="7" t="s">
         <v>76</v>
       </c>
       <c r="F106" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A107" s="9" t="s">
-        <v>150</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="10">
+        <v>45557</v>
       </c>
       <c r="B107" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="D107" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="E107" s="7" t="s">
         <v>76</v>
       </c>
       <c r="F107" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A108" s="9" t="s">
-        <v>158</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="10">
+        <v>45556</v>
       </c>
       <c r="B108" t="s">
         <v>17</v>
       </c>
       <c r="D108" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="E108" s="7" t="s">
         <v>76</v>
       </c>
       <c r="F108" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A109" s="9" t="s">
-        <v>158</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="10">
+        <v>45556</v>
       </c>
       <c r="B109" t="s">
         <v>17</v>
       </c>
       <c r="D109" t="s">
-        <v>160</v>
+        <v>127</v>
       </c>
       <c r="E109" s="7" t="s">
         <v>76</v>
       </c>
       <c r="F109" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A110" s="9" t="s">
-        <v>158</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="10">
+        <v>45556</v>
       </c>
       <c r="B110" t="s">
         <v>17</v>
       </c>
       <c r="D110" t="s">
-        <v>161</v>
+        <v>128</v>
       </c>
       <c r="E110" s="7" t="s">
         <v>76</v>
       </c>
       <c r="F110" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A111" s="9" t="s">
-        <v>158</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="10">
+        <v>45556</v>
       </c>
       <c r="B111" t="s">
         <v>17</v>
       </c>
       <c r="D111" t="s">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c r="E111" s="7" t="s">
         <v>76</v>
       </c>
       <c r="F111" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A112" s="9" t="s">
-        <v>158</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="10">
+        <v>45556</v>
       </c>
       <c r="B112" t="s">
-        <v>163</v>
+        <v>130</v>
       </c>
       <c r="D112" t="s">
-        <v>164</v>
+        <v>131</v>
       </c>
       <c r="E112" s="7" t="s">
         <v>76</v>
       </c>
       <c r="F112" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A113" s="9" t="s">
-        <v>158</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="10">
+        <v>45556</v>
       </c>
       <c r="B113" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D113" t="s">
-        <v>165</v>
+        <v>132</v>
       </c>
       <c r="E113" s="7" t="s">
         <v>76</v>
       </c>
       <c r="F113" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A114" s="9" t="s">
-        <v>158</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="10">
+        <v>45556</v>
       </c>
       <c r="B114" t="s">
         <v>67</v>
@@ -3249,1778 +3085,1778 @@
         <v>76</v>
       </c>
       <c r="F114" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A115" s="9" t="s">
-        <v>158</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="10">
+        <v>45556</v>
       </c>
       <c r="B115" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="D115" t="s">
-        <v>166</v>
+        <v>133</v>
       </c>
       <c r="E115" s="7" t="s">
         <v>76</v>
       </c>
       <c r="F115" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A116" s="9" t="s">
-        <v>158</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="10">
+        <v>45556</v>
       </c>
       <c r="B116" t="s">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="D116" t="s">
-        <v>167</v>
+        <v>134</v>
       </c>
       <c r="E116" s="7" t="s">
         <v>76</v>
       </c>
       <c r="F116" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A117" s="9" t="s">
-        <v>158</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="10">
+        <v>45556</v>
       </c>
       <c r="B117" t="s">
         <v>17</v>
       </c>
       <c r="D117" t="s">
-        <v>168</v>
+        <v>135</v>
       </c>
       <c r="E117" s="7" t="s">
         <v>76</v>
       </c>
       <c r="F117" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A118" s="9" t="s">
-        <v>158</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="10">
+        <v>45556</v>
       </c>
       <c r="B118" t="s">
-        <v>169</v>
+        <v>136</v>
       </c>
       <c r="D118" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="E118" s="7" t="s">
         <v>76</v>
       </c>
       <c r="F118" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A119" s="9" t="s">
-        <v>158</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="10">
+        <v>45556</v>
       </c>
       <c r="B119" t="s">
         <v>17</v>
       </c>
       <c r="D119" t="s">
-        <v>171</v>
+        <v>138</v>
       </c>
       <c r="E119" s="7" t="s">
         <v>76</v>
       </c>
       <c r="F119" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A120" s="9" t="s">
-        <v>158</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="10">
+        <v>45556</v>
       </c>
       <c r="B120" t="s">
         <v>17</v>
       </c>
       <c r="D120" t="s">
-        <v>172</v>
+        <v>139</v>
       </c>
       <c r="E120" s="7" t="s">
         <v>76</v>
       </c>
       <c r="F120" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A121" s="9" t="s">
-        <v>158</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="10">
+        <v>45556</v>
       </c>
       <c r="B121" t="s">
         <v>17</v>
       </c>
       <c r="D121" t="s">
-        <v>173</v>
+        <v>140</v>
       </c>
       <c r="E121" s="7" t="s">
         <v>76</v>
       </c>
       <c r="F121" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A122" s="9" t="s">
-        <v>158</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="10">
+        <v>45556</v>
       </c>
       <c r="B122" t="s">
-        <v>174</v>
+        <v>141</v>
       </c>
       <c r="D122" t="s">
-        <v>175</v>
+        <v>142</v>
       </c>
       <c r="E122" s="7" t="s">
         <v>76</v>
       </c>
       <c r="F122" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A123" s="9" t="s">
-        <v>158</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="10">
+        <v>45556</v>
       </c>
       <c r="B123" t="s">
         <v>55</v>
       </c>
       <c r="D123" t="s">
-        <v>176</v>
+        <v>143</v>
       </c>
       <c r="E123" s="7" t="s">
         <v>76</v>
       </c>
       <c r="F123" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A124" s="9" t="s">
-        <v>177</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="10">
+        <v>45555</v>
       </c>
       <c r="B124" t="s">
         <v>65</v>
       </c>
       <c r="D124" t="s">
-        <v>178</v>
+        <v>144</v>
       </c>
       <c r="E124" s="7" t="s">
         <v>76</v>
       </c>
       <c r="F124" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A125" s="9" t="s">
-        <v>177</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="10">
+        <v>45555</v>
       </c>
       <c r="B125" t="s">
         <v>17</v>
       </c>
       <c r="D125" t="s">
-        <v>179</v>
+        <v>145</v>
       </c>
       <c r="E125" s="7" t="s">
         <v>76</v>
       </c>
       <c r="F125" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A126" s="9" t="s">
-        <v>177</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="10">
+        <v>45555</v>
       </c>
       <c r="B126" t="s">
         <v>17</v>
       </c>
       <c r="D126" t="s">
-        <v>180</v>
+        <v>146</v>
       </c>
       <c r="E126" s="7" t="s">
         <v>76</v>
       </c>
       <c r="F126" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A127" s="9" t="s">
-        <v>177</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="10">
+        <v>45555</v>
       </c>
       <c r="B127" t="s">
         <v>17</v>
       </c>
       <c r="D127" t="s">
-        <v>181</v>
+        <v>147</v>
       </c>
       <c r="E127" s="7" t="s">
         <v>76</v>
       </c>
       <c r="F127" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A128" s="9" t="s">
-        <v>177</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="10">
+        <v>45555</v>
       </c>
       <c r="B128" t="s">
         <v>17</v>
       </c>
       <c r="D128" t="s">
-        <v>182</v>
+        <v>148</v>
       </c>
       <c r="E128" s="7" t="s">
         <v>76</v>
       </c>
       <c r="F128" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A129" s="9" t="s">
-        <v>177</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="10">
+        <v>45555</v>
       </c>
       <c r="B129" t="s">
         <v>17</v>
       </c>
       <c r="D129" t="s">
-        <v>183</v>
+        <v>149</v>
       </c>
       <c r="E129" s="7" t="s">
         <v>76</v>
       </c>
       <c r="F129" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A130" s="9" t="s">
-        <v>177</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="10">
+        <v>45555</v>
       </c>
       <c r="B130" t="s">
         <v>65</v>
       </c>
       <c r="D130" t="s">
-        <v>184</v>
+        <v>150</v>
       </c>
       <c r="E130" s="7" t="s">
         <v>76</v>
       </c>
       <c r="F130" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A131" s="9" t="s">
-        <v>177</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="10">
+        <v>45555</v>
       </c>
       <c r="B131" t="s">
-        <v>185</v>
+        <v>151</v>
       </c>
       <c r="D131" t="s">
-        <v>186</v>
+        <v>152</v>
       </c>
       <c r="E131" s="7" t="s">
         <v>76</v>
       </c>
       <c r="F131" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A132" s="9" t="s">
-        <v>177</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="10">
+        <v>45555</v>
       </c>
       <c r="B132" t="s">
         <v>69</v>
       </c>
       <c r="D132" t="s">
-        <v>187</v>
+        <v>153</v>
       </c>
       <c r="E132" s="7" t="s">
         <v>76</v>
       </c>
       <c r="F132" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A133" s="9" t="s">
-        <v>177</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="10">
+        <v>45555</v>
       </c>
       <c r="B133" t="s">
         <v>63</v>
       </c>
       <c r="D133" t="s">
-        <v>188</v>
+        <v>154</v>
       </c>
       <c r="E133" s="7" t="s">
         <v>76</v>
       </c>
       <c r="F133" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="10">
+        <v>45555</v>
+      </c>
+      <c r="B134" t="s">
+        <v>155</v>
+      </c>
+      <c r="D134" t="s">
+        <v>156</v>
+      </c>
+      <c r="E134" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F134" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="10">
+        <v>45554</v>
+      </c>
+      <c r="B135" t="s">
+        <v>17</v>
+      </c>
+      <c r="D135" t="s">
+        <v>157</v>
+      </c>
+      <c r="E135" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F135" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="10">
+        <v>45554</v>
+      </c>
+      <c r="B136" t="s">
+        <v>17</v>
+      </c>
+      <c r="D136" t="s">
+        <v>158</v>
+      </c>
+      <c r="E136" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F136" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="10">
+        <v>45554</v>
+      </c>
+      <c r="B137" t="s">
+        <v>17</v>
+      </c>
+      <c r="D137" t="s">
+        <v>159</v>
+      </c>
+      <c r="E137" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F137" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="10">
+        <v>45550</v>
+      </c>
+      <c r="B138" t="s">
+        <v>160</v>
+      </c>
+      <c r="D138" t="s">
+        <v>161</v>
+      </c>
+      <c r="E138" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F138" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" s="10">
+        <v>45549</v>
+      </c>
+      <c r="B139" t="s">
+        <v>162</v>
+      </c>
+      <c r="D139" t="s">
+        <v>163</v>
+      </c>
+      <c r="E139" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F139" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" s="10">
+        <v>45549</v>
+      </c>
+      <c r="B140" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A134" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="B134" t="s">
-        <v>189</v>
-      </c>
-      <c r="D134" t="s">
-        <v>190</v>
-      </c>
-      <c r="E134" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F134" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A135" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="B135" t="s">
-        <v>17</v>
-      </c>
-      <c r="D135" t="s">
-        <v>192</v>
-      </c>
-      <c r="E135" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F135" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A136" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="B136" t="s">
-        <v>17</v>
-      </c>
-      <c r="D136" t="s">
-        <v>193</v>
-      </c>
-      <c r="E136" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F136" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A137" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="B137" t="s">
-        <v>17</v>
-      </c>
-      <c r="D137" t="s">
-        <v>194</v>
-      </c>
-      <c r="E137" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F137" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A138" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="B138" t="s">
-        <v>196</v>
-      </c>
-      <c r="D138" t="s">
-        <v>197</v>
-      </c>
-      <c r="E138" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F138" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A139" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="B139" t="s">
-        <v>199</v>
-      </c>
-      <c r="D139" t="s">
-        <v>200</v>
-      </c>
-      <c r="E139" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F139" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A140" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="B140" t="s">
-        <v>82</v>
-      </c>
       <c r="D140" t="s">
-        <v>201</v>
+        <v>164</v>
       </c>
       <c r="E140" s="7" t="s">
         <v>76</v>
       </c>
       <c r="F140" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A141" s="9" t="s">
-        <v>198</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" s="10">
+        <v>45549</v>
       </c>
       <c r="B141" t="s">
-        <v>202</v>
+        <v>165</v>
       </c>
       <c r="D141" t="s">
-        <v>203</v>
+        <v>166</v>
       </c>
       <c r="E141" s="7" t="s">
         <v>76</v>
       </c>
       <c r="F141" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A142" s="9" t="s">
-        <v>198</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="10">
+        <v>45549</v>
       </c>
       <c r="B142" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="D142" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
       <c r="E142" s="7" t="s">
         <v>76</v>
       </c>
       <c r="F142" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A143" s="9" t="s">
-        <v>198</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="10">
+        <v>45549</v>
       </c>
       <c r="B143" t="s">
-        <v>202</v>
+        <v>165</v>
       </c>
       <c r="D143" t="s">
-        <v>205</v>
+        <v>168</v>
       </c>
       <c r="E143" s="7" t="s">
         <v>76</v>
       </c>
       <c r="F143" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A144" s="9" t="s">
-        <v>198</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="10">
+        <v>45549</v>
       </c>
       <c r="B144" t="s">
         <v>70</v>
       </c>
       <c r="D144" t="s">
-        <v>206</v>
+        <v>169</v>
       </c>
       <c r="E144" s="7" t="s">
         <v>76</v>
       </c>
       <c r="F144" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="10">
+        <v>45548</v>
+      </c>
+      <c r="B145" t="s">
+        <v>17</v>
+      </c>
+      <c r="D145" t="s">
+        <v>170</v>
+      </c>
+      <c r="E145" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F145" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" s="10">
+        <v>45539</v>
+      </c>
+      <c r="B146" t="s">
+        <v>171</v>
+      </c>
+      <c r="D146" t="s">
+        <v>172</v>
+      </c>
+      <c r="E146" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F146" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" s="10">
+        <v>45539</v>
+      </c>
+      <c r="B147" t="s">
+        <v>171</v>
+      </c>
+      <c r="D147" t="s">
+        <v>173</v>
+      </c>
+      <c r="E147" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F147" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" s="10">
+        <v>45536</v>
+      </c>
+      <c r="B148" t="s">
+        <v>174</v>
+      </c>
+      <c r="D148" t="s">
+        <v>175</v>
+      </c>
+      <c r="E148" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F148" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" s="10">
+        <v>45526</v>
+      </c>
+      <c r="B149" t="s">
+        <v>176</v>
+      </c>
+      <c r="D149" t="s">
+        <v>177</v>
+      </c>
+      <c r="E149" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F149" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" s="10">
+        <v>45521</v>
+      </c>
+      <c r="B150" t="s">
+        <v>17</v>
+      </c>
+      <c r="D150" t="s">
+        <v>178</v>
+      </c>
+      <c r="E150" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F150" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="10">
+        <v>45486</v>
+      </c>
+      <c r="B151" t="s">
+        <v>17</v>
+      </c>
+      <c r="D151" t="s">
+        <v>179</v>
+      </c>
+      <c r="E151" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F151" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="10">
+        <v>45472</v>
+      </c>
+      <c r="B152" t="s">
+        <v>124</v>
+      </c>
+      <c r="D152" t="s">
+        <v>180</v>
+      </c>
+      <c r="E152" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F152" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" s="10">
+        <v>45451</v>
+      </c>
+      <c r="B153" t="s">
+        <v>17</v>
+      </c>
+      <c r="D153" t="s">
+        <v>181</v>
+      </c>
+      <c r="E153" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F153" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" s="10">
+        <v>45437</v>
+      </c>
+      <c r="B154" t="s">
+        <v>121</v>
+      </c>
+      <c r="D154" t="s">
+        <v>182</v>
+      </c>
+      <c r="E154" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F154" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" s="10">
+        <v>45409</v>
+      </c>
+      <c r="B155" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A145" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="B145" t="s">
-        <v>17</v>
-      </c>
-      <c r="D145" t="s">
-        <v>208</v>
-      </c>
-      <c r="E145" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F145" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A146" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="B146" t="s">
-        <v>210</v>
-      </c>
-      <c r="D146" t="s">
-        <v>211</v>
-      </c>
-      <c r="E146" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F146" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A147" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="B147" t="s">
-        <v>210</v>
-      </c>
-      <c r="D147" t="s">
-        <v>212</v>
-      </c>
-      <c r="E147" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F147" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A148" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="B148" t="s">
-        <v>214</v>
-      </c>
-      <c r="D148" t="s">
-        <v>215</v>
-      </c>
-      <c r="E148" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F148" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A149" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="B149" t="s">
-        <v>217</v>
-      </c>
-      <c r="D149" t="s">
-        <v>218</v>
-      </c>
-      <c r="E149" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F149" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A150" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="B150" t="s">
-        <v>17</v>
-      </c>
-      <c r="D150" t="s">
-        <v>220</v>
-      </c>
-      <c r="E150" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F150" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A151" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="B151" t="s">
-        <v>17</v>
-      </c>
-      <c r="D151" t="s">
-        <v>222</v>
-      </c>
-      <c r="E151" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F151" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A152" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="B152" t="s">
-        <v>156</v>
-      </c>
-      <c r="D152" t="s">
-        <v>224</v>
-      </c>
-      <c r="E152" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F152" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A153" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="B153" t="s">
-        <v>17</v>
-      </c>
-      <c r="D153" t="s">
-        <v>226</v>
-      </c>
-      <c r="E153" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F153" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A154" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="B154" t="s">
-        <v>153</v>
-      </c>
-      <c r="D154" t="s">
-        <v>228</v>
-      </c>
-      <c r="E154" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F154" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A155" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="B155" t="s">
-        <v>82</v>
-      </c>
       <c r="D155" t="s">
-        <v>230</v>
+        <v>183</v>
       </c>
       <c r="E155" s="7" t="s">
         <v>76</v>
       </c>
       <c r="F155" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A156" s="9" t="s">
-        <v>229</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" s="10">
+        <v>45409</v>
       </c>
       <c r="B156" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D156" t="s">
-        <v>231</v>
+        <v>184</v>
       </c>
       <c r="E156" s="7" t="s">
         <v>76</v>
       </c>
       <c r="F156" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A157" s="9" t="s">
-        <v>229</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" s="10">
+        <v>45409</v>
       </c>
       <c r="B157" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D157" t="s">
-        <v>232</v>
+        <v>185</v>
       </c>
       <c r="E157" s="7" t="s">
         <v>76</v>
       </c>
       <c r="F157" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A158" s="9" t="s">
-        <v>229</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" s="10">
+        <v>45409</v>
       </c>
       <c r="B158" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D158" t="s">
-        <v>233</v>
+        <v>186</v>
       </c>
       <c r="E158" s="7" t="s">
         <v>76</v>
       </c>
       <c r="F158" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A159" s="9" t="s">
-        <v>234</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" s="10">
+        <v>45406</v>
       </c>
       <c r="B159" t="s">
         <v>17</v>
       </c>
       <c r="D159" t="s">
-        <v>235</v>
+        <v>187</v>
       </c>
       <c r="E159" s="7" t="s">
         <v>76</v>
       </c>
       <c r="F159" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A160" s="9" t="s">
-        <v>236</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" s="10">
+        <v>45404</v>
       </c>
       <c r="B160" t="s">
-        <v>214</v>
+        <v>174</v>
       </c>
       <c r="D160" t="s">
-        <v>237</v>
+        <v>188</v>
       </c>
       <c r="E160" s="7" t="s">
         <v>76</v>
       </c>
       <c r="F160" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A161" s="9" t="s">
-        <v>238</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" s="10">
+        <v>45403</v>
       </c>
       <c r="B161" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="D161" t="s">
-        <v>239</v>
+        <v>189</v>
       </c>
       <c r="E161" s="7" t="s">
         <v>76</v>
       </c>
       <c r="F161" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A162" s="9" t="s">
-        <v>240</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" s="10">
+        <v>45402</v>
       </c>
       <c r="B162" t="s">
-        <v>241</v>
+        <v>190</v>
       </c>
       <c r="D162" t="s">
-        <v>242</v>
+        <v>191</v>
       </c>
       <c r="E162" s="7" t="s">
         <v>76</v>
       </c>
       <c r="F162" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A163" s="9" t="s">
-        <v>240</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" s="10">
+        <v>45402</v>
       </c>
       <c r="B163" t="s">
         <v>46</v>
       </c>
       <c r="D163" t="s">
-        <v>243</v>
+        <v>192</v>
       </c>
       <c r="E163" s="7" t="s">
         <v>76</v>
       </c>
       <c r="F163" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A164" s="9" t="s">
-        <v>244</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" s="10">
+        <v>45399</v>
       </c>
       <c r="B164" t="s">
         <v>17</v>
       </c>
       <c r="D164" t="s">
-        <v>245</v>
+        <v>193</v>
       </c>
       <c r="E164" s="7" t="s">
         <v>76</v>
       </c>
       <c r="F164" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A165" s="9" t="s">
-        <v>246</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" s="10">
+        <v>45396</v>
       </c>
       <c r="B165" t="s">
         <v>17</v>
       </c>
       <c r="D165" t="s">
-        <v>247</v>
+        <v>194</v>
       </c>
       <c r="E165" s="7" t="s">
         <v>76</v>
       </c>
       <c r="F165" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A166" s="9" t="s">
-        <v>246</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" s="10">
+        <v>45396</v>
       </c>
       <c r="B166" t="s">
         <v>17</v>
       </c>
       <c r="D166" t="s">
-        <v>248</v>
+        <v>195</v>
       </c>
       <c r="E166" s="7" t="s">
         <v>76</v>
       </c>
       <c r="F166" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A167" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" s="10">
+        <v>45776</v>
       </c>
       <c r="B167" t="s">
         <v>17</v>
       </c>
       <c r="C167"/>
       <c r="D167" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E167" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F167" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" s="10">
+        <v>45773</v>
+      </c>
+      <c r="B168" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A168" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B168" t="s">
-        <v>82</v>
       </c>
       <c r="C168"/>
       <c r="D168" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E168" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F168" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A169" s="9" t="s">
-        <v>84</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" s="10">
+        <v>45771</v>
       </c>
       <c r="B169" t="s">
         <v>17</v>
       </c>
       <c r="C169"/>
       <c r="D169" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E169" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F169" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A170" s="9" t="s">
-        <v>86</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" s="10">
+        <v>45768</v>
       </c>
       <c r="B170" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C170"/>
       <c r="D170" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E170" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F170" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A171" s="9" t="s">
-        <v>89</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" s="10">
+        <v>45756</v>
       </c>
       <c r="B171" t="s">
         <v>70</v>
       </c>
       <c r="C171"/>
       <c r="D171" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E171" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F171" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" s="10">
+        <v>45744</v>
+      </c>
+      <c r="B172" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A172" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B172" t="s">
-        <v>82</v>
       </c>
       <c r="C172"/>
       <c r="D172" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E172" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F172" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" s="10">
+        <v>45744</v>
+      </c>
+      <c r="B173" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A173" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B173" t="s">
-        <v>82</v>
       </c>
       <c r="C173"/>
       <c r="D173" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E173" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F173" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" s="10">
+        <v>45739</v>
+      </c>
+      <c r="B174" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A174" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B174" t="s">
-        <v>82</v>
       </c>
       <c r="C174"/>
       <c r="D174" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E174" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F174" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A175" s="9" t="s">
-        <v>96</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" s="10">
+        <v>45738</v>
       </c>
       <c r="B175" t="s">
         <v>65</v>
       </c>
       <c r="C175"/>
       <c r="D175" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E175" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F175" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" s="10">
+        <v>45731</v>
+      </c>
+      <c r="B176" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A176" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B176" t="s">
-        <v>82</v>
       </c>
       <c r="C176"/>
       <c r="D176" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="E176" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F176" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" s="10">
+        <v>45731</v>
+      </c>
+      <c r="B177" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A177" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B177" t="s">
-        <v>82</v>
       </c>
       <c r="C177"/>
       <c r="D177" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E177" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F177" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A178" s="9" t="s">
-        <v>98</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" s="10">
+        <v>45731</v>
       </c>
       <c r="B178" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C178"/>
       <c r="D178" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="E178" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F178" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A179" s="9" t="s">
-        <v>102</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" s="10">
+        <v>45725</v>
       </c>
       <c r="B179" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C179"/>
       <c r="D179" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="E179" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F179" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A180" s="9" t="s">
-        <v>104</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" s="10">
+        <v>45722</v>
       </c>
       <c r="B180" t="s">
         <v>17</v>
       </c>
       <c r="C180"/>
       <c r="D180" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="E180" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F180" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A181" s="9" t="s">
-        <v>106</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181" s="10">
+        <v>45715</v>
       </c>
       <c r="B181" t="s">
         <v>17</v>
       </c>
       <c r="C181"/>
       <c r="D181" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="E181" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F181" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A182" s="9" t="s">
-        <v>108</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" s="10">
+        <v>45711</v>
       </c>
       <c r="B182" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="C182"/>
       <c r="D182" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="E182" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F182" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183" s="10">
+        <v>45710</v>
+      </c>
+      <c r="B183" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A183" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="B183" t="s">
-        <v>82</v>
       </c>
       <c r="C183"/>
       <c r="D183" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="E183" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F183" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" s="10">
+        <v>45710</v>
+      </c>
+      <c r="B184" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A184" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="B184" t="s">
-        <v>82</v>
       </c>
       <c r="C184"/>
       <c r="D184" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="E184" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F184" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A185" s="9" t="s">
-        <v>114</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185" s="10">
+        <v>45689</v>
       </c>
       <c r="B185" t="s">
         <v>17</v>
       </c>
       <c r="C185"/>
       <c r="D185" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="E185" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F185" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A186" s="9" t="s">
-        <v>116</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" s="10">
+        <v>45683</v>
       </c>
       <c r="B186" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C186"/>
       <c r="D186" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="E186" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F186" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187" s="10">
+        <v>45682</v>
+      </c>
+      <c r="B187" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A187" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="B187" t="s">
-        <v>82</v>
       </c>
       <c r="C187"/>
       <c r="D187" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="E187" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F187" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A188" s="9" t="s">
-        <v>120</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" s="10">
+        <v>45675</v>
       </c>
       <c r="B188" t="s">
         <v>17</v>
       </c>
       <c r="C188"/>
       <c r="D188" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="E188" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F188" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A189" s="9" t="s">
-        <v>122</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189" s="10">
+        <v>45648</v>
       </c>
       <c r="B189" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C189"/>
       <c r="D189" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="E189" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F189" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A190" s="9" t="s">
-        <v>124</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190" s="10">
+        <v>45628</v>
       </c>
       <c r="B190" t="s">
         <v>17</v>
       </c>
       <c r="C190"/>
       <c r="D190" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="E190" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F190" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A191" s="9" t="s">
-        <v>126</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191" s="10">
+        <v>45619</v>
       </c>
       <c r="B191" t="s">
         <v>17</v>
       </c>
       <c r="C191"/>
       <c r="D191" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="E191" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F191" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A192" s="9" t="s">
-        <v>128</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192" s="10">
+        <v>45618</v>
       </c>
       <c r="B192" t="s">
         <v>17</v>
       </c>
       <c r="C192"/>
       <c r="D192" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="E192" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F192" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A193" s="9" t="s">
-        <v>130</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" s="10">
+        <v>45611</v>
       </c>
       <c r="B193" t="s">
         <v>65</v>
       </c>
       <c r="C193"/>
       <c r="D193" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="E193" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F193" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A194" s="9" t="s">
-        <v>132</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194" s="10">
+        <v>45596</v>
       </c>
       <c r="B194" t="s">
         <v>17</v>
       </c>
       <c r="C194"/>
       <c r="D194" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="E194" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F194" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A195" s="9" t="s">
-        <v>134</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195" s="10">
+        <v>45584</v>
       </c>
       <c r="B195" t="s">
         <v>17</v>
       </c>
       <c r="C195"/>
       <c r="D195" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="E195" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F195" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A196" s="9" t="s">
-        <v>134</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196" s="10">
+        <v>45584</v>
       </c>
       <c r="B196" t="s">
         <v>17</v>
       </c>
       <c r="C196"/>
       <c r="D196" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="E196" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F196" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A197" s="9" t="s">
-        <v>135</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197" s="10">
+        <v>45572</v>
       </c>
       <c r="B197" t="s">
         <v>69</v>
       </c>
       <c r="C197"/>
       <c r="D197" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="E197" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F197" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A198" s="9" t="s">
-        <v>137</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198" s="10">
+        <v>45567</v>
       </c>
       <c r="B198" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="C198"/>
       <c r="D198" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="E198" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F198" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A199" s="9" t="s">
-        <v>140</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199" s="10">
+        <v>45566</v>
       </c>
       <c r="B199" t="s">
         <v>17</v>
       </c>
       <c r="C199"/>
       <c r="D199" t="s">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="E199" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F199" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A200" s="9" t="s">
-        <v>142</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200" s="10">
+        <v>45565</v>
       </c>
       <c r="B200" t="s">
         <v>70</v>
       </c>
       <c r="C200"/>
       <c r="D200" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="E200" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F200" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A201" s="9" t="s">
-        <v>144</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201" s="10">
+        <v>45563</v>
       </c>
       <c r="B201" t="s">
         <v>17</v>
       </c>
       <c r="C201"/>
       <c r="D201" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="E201" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F201" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A202" s="9" t="s">
-        <v>144</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202" s="10">
+        <v>45563</v>
       </c>
       <c r="B202" t="s">
         <v>17</v>
       </c>
       <c r="C202"/>
       <c r="D202" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="E202" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F202" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A203" s="9" t="s">
-        <v>144</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203" s="10">
+        <v>45563</v>
       </c>
       <c r="B203" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C203"/>
       <c r="D203" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="E203" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F203" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A204" s="9" t="s">
-        <v>148</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204" s="10">
+        <v>45562</v>
       </c>
       <c r="B204" t="s">
         <v>17</v>
       </c>
       <c r="C204"/>
       <c r="D204" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
       <c r="E204" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F204" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A205" s="9" t="s">
-        <v>150</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205" s="10">
+        <v>45557</v>
       </c>
       <c r="B205" t="s">
         <v>55</v>
       </c>
       <c r="C205"/>
       <c r="D205" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="E205" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F205" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A206" s="9" t="s">
-        <v>150</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206" s="10">
+        <v>45557</v>
       </c>
       <c r="B206" t="s">
         <v>55</v>
       </c>
       <c r="C206"/>
       <c r="D206" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="E206" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F206" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A207" s="9" t="s">
-        <v>150</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207" s="10">
+        <v>45557</v>
       </c>
       <c r="B207" t="s">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="C207"/>
       <c r="D207" t="s">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="E207" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F207" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A208" s="9" t="s">
-        <v>150</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208" s="10">
+        <v>45557</v>
       </c>
       <c r="B208" t="s">
         <v>71</v>
       </c>
       <c r="C208"/>
       <c r="D208" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="E208" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F208" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A209" s="9" t="s">
-        <v>150</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209" s="10">
+        <v>45557</v>
       </c>
       <c r="B209" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="C209"/>
       <c r="D209" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="E209" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F209" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A210" s="9" t="s">
-        <v>158</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210" s="10">
+        <v>45556</v>
       </c>
       <c r="B210" t="s">
         <v>17</v>
       </c>
       <c r="C210"/>
       <c r="D210" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="E210" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F210" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A211" s="9" t="s">
-        <v>158</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A211" s="10">
+        <v>45556</v>
       </c>
       <c r="B211" t="s">
         <v>17</v>
       </c>
       <c r="C211"/>
       <c r="D211" t="s">
-        <v>160</v>
+        <v>127</v>
       </c>
       <c r="E211" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F211" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A212" s="9" t="s">
-        <v>158</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212" s="10">
+        <v>45556</v>
       </c>
       <c r="B212" t="s">
         <v>17</v>
       </c>
       <c r="C212"/>
       <c r="D212" t="s">
-        <v>161</v>
+        <v>128</v>
       </c>
       <c r="E212" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F212" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A213" s="9" t="s">
-        <v>158</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A213" s="10">
+        <v>45556</v>
       </c>
       <c r="B213" t="s">
         <v>17</v>
       </c>
       <c r="C213"/>
       <c r="D213" t="s">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c r="E213" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F213" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A214" s="9" t="s">
-        <v>158</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214" s="10">
+        <v>45556</v>
       </c>
       <c r="B214" t="s">
-        <v>163</v>
+        <v>130</v>
       </c>
       <c r="C214"/>
       <c r="D214" t="s">
-        <v>164</v>
+        <v>131</v>
       </c>
       <c r="E214" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F214" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A215" s="9" t="s">
-        <v>158</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A215" s="10">
+        <v>45556</v>
       </c>
       <c r="B215" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C215"/>
       <c r="D215" t="s">
-        <v>165</v>
+        <v>132</v>
       </c>
       <c r="E215" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F215" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A216" s="9" t="s">
-        <v>158</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A216" s="10">
+        <v>45556</v>
       </c>
       <c r="B216" t="s">
         <v>67</v>
@@ -5033,875 +4869,875 @@
         <v>77</v>
       </c>
       <c r="F216" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A217" s="9" t="s">
-        <v>158</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A217" s="10">
+        <v>45556</v>
       </c>
       <c r="B217" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="C217"/>
       <c r="D217" t="s">
-        <v>166</v>
+        <v>133</v>
       </c>
       <c r="E217" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F217" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A218" s="9" t="s">
-        <v>158</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A218" s="10">
+        <v>45556</v>
       </c>
       <c r="B218" t="s">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="C218"/>
       <c r="D218" t="s">
-        <v>167</v>
+        <v>134</v>
       </c>
       <c r="E218" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F218" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A219" s="9" t="s">
-        <v>158</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A219" s="10">
+        <v>45556</v>
       </c>
       <c r="B219" t="s">
         <v>17</v>
       </c>
       <c r="C219"/>
       <c r="D219" t="s">
-        <v>168</v>
+        <v>135</v>
       </c>
       <c r="E219" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F219" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A220" s="9" t="s">
-        <v>158</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A220" s="10">
+        <v>45556</v>
       </c>
       <c r="B220" t="s">
-        <v>169</v>
+        <v>136</v>
       </c>
       <c r="C220"/>
       <c r="D220" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="E220" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F220" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A221" s="9" t="s">
-        <v>158</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A221" s="10">
+        <v>45556</v>
       </c>
       <c r="B221" t="s">
         <v>17</v>
       </c>
       <c r="C221"/>
       <c r="D221" t="s">
-        <v>171</v>
+        <v>138</v>
       </c>
       <c r="E221" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F221" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A222" s="9" t="s">
-        <v>158</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A222" s="10">
+        <v>45556</v>
       </c>
       <c r="B222" t="s">
         <v>17</v>
       </c>
       <c r="C222"/>
       <c r="D222" t="s">
-        <v>172</v>
+        <v>139</v>
       </c>
       <c r="E222" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F222" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A223" s="9" t="s">
-        <v>158</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A223" s="10">
+        <v>45556</v>
       </c>
       <c r="B223" t="s">
         <v>17</v>
       </c>
       <c r="C223"/>
       <c r="D223" t="s">
-        <v>173</v>
+        <v>140</v>
       </c>
       <c r="E223" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F223" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A224" s="9" t="s">
-        <v>158</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A224" s="10">
+        <v>45556</v>
       </c>
       <c r="B224" t="s">
-        <v>174</v>
+        <v>141</v>
       </c>
       <c r="C224"/>
       <c r="D224" t="s">
-        <v>175</v>
+        <v>142</v>
       </c>
       <c r="E224" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F224" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A225" s="9" t="s">
-        <v>158</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A225" s="10">
+        <v>45556</v>
       </c>
       <c r="B225" t="s">
         <v>55</v>
       </c>
       <c r="C225"/>
       <c r="D225" t="s">
-        <v>176</v>
+        <v>143</v>
       </c>
       <c r="E225" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F225" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A226" s="9" t="s">
-        <v>177</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A226" s="10">
+        <v>45555</v>
       </c>
       <c r="B226" t="s">
         <v>65</v>
       </c>
       <c r="C226"/>
       <c r="D226" t="s">
-        <v>178</v>
+        <v>144</v>
       </c>
       <c r="E226" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F226" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A227" s="9" t="s">
-        <v>177</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A227" s="10">
+        <v>45555</v>
       </c>
       <c r="B227" t="s">
         <v>17</v>
       </c>
       <c r="C227"/>
       <c r="D227" t="s">
-        <v>179</v>
+        <v>145</v>
       </c>
       <c r="E227" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F227" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A228" s="9" t="s">
-        <v>177</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A228" s="10">
+        <v>45555</v>
       </c>
       <c r="B228" t="s">
         <v>17</v>
       </c>
       <c r="C228"/>
       <c r="D228" t="s">
-        <v>180</v>
+        <v>146</v>
       </c>
       <c r="E228" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F228" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A229" s="9" t="s">
-        <v>177</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A229" s="10">
+        <v>45555</v>
       </c>
       <c r="B229" t="s">
         <v>17</v>
       </c>
       <c r="C229"/>
       <c r="D229" t="s">
-        <v>181</v>
+        <v>147</v>
       </c>
       <c r="E229" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F229" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A230" s="9" t="s">
-        <v>177</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A230" s="10">
+        <v>45555</v>
       </c>
       <c r="B230" t="s">
         <v>17</v>
       </c>
       <c r="C230"/>
       <c r="D230" t="s">
-        <v>182</v>
+        <v>148</v>
       </c>
       <c r="E230" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F230" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A231" s="9" t="s">
-        <v>177</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A231" s="10">
+        <v>45555</v>
       </c>
       <c r="B231" t="s">
         <v>17</v>
       </c>
       <c r="C231"/>
       <c r="D231" t="s">
-        <v>183</v>
+        <v>149</v>
       </c>
       <c r="E231" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F231" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A232" s="9" t="s">
-        <v>177</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A232" s="10">
+        <v>45555</v>
       </c>
       <c r="B232" t="s">
         <v>65</v>
       </c>
       <c r="C232"/>
       <c r="D232" t="s">
-        <v>184</v>
+        <v>150</v>
       </c>
       <c r="E232" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F232" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A233" s="9" t="s">
-        <v>177</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A233" s="10">
+        <v>45555</v>
       </c>
       <c r="B233" t="s">
-        <v>185</v>
+        <v>151</v>
       </c>
       <c r="C233"/>
       <c r="D233" t="s">
-        <v>186</v>
+        <v>152</v>
       </c>
       <c r="E233" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F233" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A234" s="9" t="s">
-        <v>177</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A234" s="10">
+        <v>45555</v>
       </c>
       <c r="B234" t="s">
         <v>69</v>
       </c>
       <c r="C234"/>
       <c r="D234" t="s">
-        <v>187</v>
+        <v>153</v>
       </c>
       <c r="E234" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F234" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A235" s="9" t="s">
-        <v>177</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A235" s="10">
+        <v>45555</v>
       </c>
       <c r="B235" t="s">
         <v>63</v>
       </c>
       <c r="C235"/>
       <c r="D235" t="s">
-        <v>188</v>
+        <v>154</v>
       </c>
       <c r="E235" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F235" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A236" s="9" t="s">
-        <v>177</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A236" s="10">
+        <v>45555</v>
       </c>
       <c r="B236" t="s">
-        <v>189</v>
+        <v>155</v>
       </c>
       <c r="C236"/>
       <c r="D236" t="s">
-        <v>190</v>
+        <v>156</v>
       </c>
       <c r="E236" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F236" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A237" s="9" t="s">
-        <v>191</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A237" s="10">
+        <v>45554</v>
       </c>
       <c r="B237" t="s">
         <v>17</v>
       </c>
       <c r="C237"/>
       <c r="D237" t="s">
-        <v>192</v>
+        <v>157</v>
       </c>
       <c r="E237" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F237" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A238" s="9" t="s">
-        <v>191</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A238" s="10">
+        <v>45554</v>
       </c>
       <c r="B238" t="s">
         <v>17</v>
       </c>
       <c r="C238"/>
       <c r="D238" t="s">
-        <v>193</v>
+        <v>158</v>
       </c>
       <c r="E238" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F238" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A239" s="9" t="s">
-        <v>191</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A239" s="10">
+        <v>45554</v>
       </c>
       <c r="B239" t="s">
         <v>17</v>
       </c>
       <c r="C239"/>
       <c r="D239" t="s">
-        <v>194</v>
+        <v>159</v>
       </c>
       <c r="E239" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F239" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A240" s="9" t="s">
-        <v>195</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A240" s="10">
+        <v>45550</v>
       </c>
       <c r="B240" t="s">
-        <v>196</v>
+        <v>160</v>
       </c>
       <c r="C240"/>
       <c r="D240" t="s">
-        <v>197</v>
+        <v>161</v>
       </c>
       <c r="E240" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F240" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A241" s="9" t="s">
-        <v>198</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A241" s="10">
+        <v>45549</v>
       </c>
       <c r="B241" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="C241"/>
       <c r="D241" t="s">
-        <v>200</v>
+        <v>163</v>
       </c>
       <c r="E241" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F241" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A242" s="10">
+        <v>45549</v>
+      </c>
+      <c r="B242" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A242" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="B242" t="s">
-        <v>82</v>
       </c>
       <c r="C242"/>
       <c r="D242" t="s">
-        <v>201</v>
+        <v>164</v>
       </c>
       <c r="E242" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F242" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A243" s="9" t="s">
-        <v>198</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A243" s="10">
+        <v>45549</v>
       </c>
       <c r="B243" t="s">
-        <v>202</v>
+        <v>165</v>
       </c>
       <c r="C243"/>
       <c r="D243" t="s">
-        <v>203</v>
+        <v>166</v>
       </c>
       <c r="E243" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F243" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A244" s="9" t="s">
-        <v>198</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A244" s="10">
+        <v>45549</v>
       </c>
       <c r="B244" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="C244"/>
       <c r="D244" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
       <c r="E244" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F244" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A245" s="9" t="s">
-        <v>198</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A245" s="10">
+        <v>45549</v>
       </c>
       <c r="B245" t="s">
-        <v>202</v>
+        <v>165</v>
       </c>
       <c r="C245"/>
       <c r="D245" t="s">
-        <v>205</v>
+        <v>168</v>
       </c>
       <c r="E245" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F245" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A246" s="9" t="s">
-        <v>198</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A246" s="10">
+        <v>45549</v>
       </c>
       <c r="B246" t="s">
         <v>70</v>
       </c>
       <c r="C246"/>
       <c r="D246" t="s">
-        <v>206</v>
+        <v>169</v>
       </c>
       <c r="E246" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F246" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A247" s="9" t="s">
-        <v>207</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A247" s="10">
+        <v>45548</v>
       </c>
       <c r="B247" t="s">
         <v>17</v>
       </c>
       <c r="C247"/>
       <c r="D247" t="s">
-        <v>208</v>
+        <v>170</v>
       </c>
       <c r="E247" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F247" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A248" s="9" t="s">
-        <v>209</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A248" s="10">
+        <v>45539</v>
       </c>
       <c r="B248" t="s">
-        <v>210</v>
+        <v>171</v>
       </c>
       <c r="C248"/>
       <c r="D248" t="s">
-        <v>211</v>
+        <v>172</v>
       </c>
       <c r="E248" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F248" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A249" s="9" t="s">
-        <v>209</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A249" s="10">
+        <v>45539</v>
       </c>
       <c r="B249" t="s">
-        <v>210</v>
+        <v>171</v>
       </c>
       <c r="C249"/>
       <c r="D249" t="s">
-        <v>212</v>
+        <v>173</v>
       </c>
       <c r="E249" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F249" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A250" s="9" t="s">
-        <v>213</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A250" s="10">
+        <v>45536</v>
       </c>
       <c r="B250" t="s">
-        <v>214</v>
+        <v>174</v>
       </c>
       <c r="C250"/>
       <c r="D250" t="s">
-        <v>215</v>
+        <v>175</v>
       </c>
       <c r="E250" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F250" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A251" s="9" t="s">
-        <v>216</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A251" s="10">
+        <v>45526</v>
       </c>
       <c r="B251" t="s">
-        <v>217</v>
+        <v>176</v>
       </c>
       <c r="C251"/>
       <c r="D251" t="s">
-        <v>218</v>
+        <v>177</v>
       </c>
       <c r="E251" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F251" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A252" s="9" t="s">
-        <v>219</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A252" s="10">
+        <v>45521</v>
       </c>
       <c r="B252" t="s">
         <v>17</v>
       </c>
       <c r="C252"/>
       <c r="D252" t="s">
-        <v>220</v>
+        <v>178</v>
       </c>
       <c r="E252" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F252" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A253" s="9" t="s">
-        <v>221</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A253" s="10">
+        <v>45486</v>
       </c>
       <c r="B253" t="s">
         <v>17</v>
       </c>
       <c r="C253"/>
       <c r="D253" t="s">
-        <v>222</v>
+        <v>179</v>
       </c>
       <c r="E253" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F253" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A254" s="9" t="s">
-        <v>223</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A254" s="10">
+        <v>45472</v>
       </c>
       <c r="B254" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="C254"/>
       <c r="D254" t="s">
-        <v>224</v>
+        <v>180</v>
       </c>
       <c r="E254" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F254" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A255" s="9" t="s">
-        <v>225</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A255" s="10">
+        <v>45451</v>
       </c>
       <c r="B255" t="s">
         <v>17</v>
       </c>
       <c r="C255"/>
       <c r="D255" t="s">
-        <v>226</v>
+        <v>181</v>
       </c>
       <c r="E255" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F255" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A256" s="9" t="s">
-        <v>227</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A256" s="10">
+        <v>45437</v>
       </c>
       <c r="B256" t="s">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="C256"/>
       <c r="D256" t="s">
-        <v>228</v>
+        <v>182</v>
       </c>
       <c r="E256" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F256" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A257" s="10">
+        <v>45409</v>
+      </c>
+      <c r="B257" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A257" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="B257" t="s">
-        <v>82</v>
       </c>
       <c r="C257"/>
       <c r="D257" t="s">
-        <v>230</v>
+        <v>183</v>
       </c>
       <c r="E257" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F257" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A258" s="9" t="s">
-        <v>229</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A258" s="10">
+        <v>45409</v>
       </c>
       <c r="B258" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C258"/>
       <c r="D258" t="s">
-        <v>231</v>
+        <v>184</v>
       </c>
       <c r="E258" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F258" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A259" s="9" t="s">
-        <v>229</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A259" s="10">
+        <v>45409</v>
       </c>
       <c r="B259" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C259"/>
       <c r="D259" t="s">
-        <v>232</v>
+        <v>185</v>
       </c>
       <c r="E259" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F259" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A260" s="9" t="s">
-        <v>229</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A260" s="10">
+        <v>45409</v>
       </c>
       <c r="B260" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C260"/>
       <c r="D260" t="s">
-        <v>233</v>
+        <v>186</v>
       </c>
       <c r="E260" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F260" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A261" s="9" t="s">
-        <v>234</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A261" s="10">
+        <v>45406</v>
       </c>
       <c r="B261" t="s">
         <v>17</v>
       </c>
       <c r="C261"/>
       <c r="D261" t="s">
-        <v>235</v>
+        <v>187</v>
       </c>
       <c r="E261" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F261" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A262" s="9" t="s">
-        <v>236</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A262" s="10">
+        <v>45404</v>
       </c>
       <c r="B262" t="s">
-        <v>214</v>
+        <v>174</v>
       </c>
       <c r="C262"/>
       <c r="D262" t="s">
-        <v>237</v>
+        <v>188</v>
       </c>
       <c r="E262" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F262" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A263" s="9">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A263" s="10">
         <v>45403</v>
       </c>
       <c r="B263" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="C263"/>
       <c r="D263" t="s">
-        <v>239</v>
+        <v>189</v>
       </c>
       <c r="E263" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F263" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A264" s="9">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A264" s="10">
         <v>45402</v>
       </c>
       <c r="B264" t="s">
-        <v>241</v>
+        <v>190</v>
       </c>
       <c r="C264"/>
       <c r="D264" t="s">
-        <v>242</v>
+        <v>191</v>
       </c>
       <c r="E264" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F264" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A265" s="9">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A265" s="10">
         <v>45402</v>
       </c>
       <c r="B265" t="s">
@@ -5909,17 +5745,17 @@
       </c>
       <c r="C265"/>
       <c r="D265" t="s">
-        <v>243</v>
+        <v>192</v>
       </c>
       <c r="E265" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F265" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A266" s="9">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A266" s="10">
         <v>45399</v>
       </c>
       <c r="B266" t="s">
@@ -5927,17 +5763,17 @@
       </c>
       <c r="C266"/>
       <c r="D266" t="s">
-        <v>245</v>
+        <v>193</v>
       </c>
       <c r="E266" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F266" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A267" s="9">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A267" s="10">
         <v>45396</v>
       </c>
       <c r="B267" t="s">
@@ -5945,17 +5781,17 @@
       </c>
       <c r="C267"/>
       <c r="D267" t="s">
-        <v>247</v>
+        <v>194</v>
       </c>
       <c r="E267" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F267" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A268" s="9">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A268" s="10">
         <v>45396</v>
       </c>
       <c r="B268" t="s">
@@ -5963,13 +5799,13 @@
       </c>
       <c r="C268"/>
       <c r="D268" t="s">
-        <v>248</v>
+        <v>195</v>
       </c>
       <c r="E268" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F268" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
